--- a/data.xlsx
+++ b/data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leebi\Dropbox\My Book\quant_py\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B18D0A-D7EF-49FD-8DA8-47C934E5D00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="kospi" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -28,15 +34,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -44,8 +50,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -89,18 +102,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -142,7 +163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -174,9 +195,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,6 +247,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -383,14 +440,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,7 +458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,7 +472,7 @@
         <v>-1.02</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -429,7 +486,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -437,13 +494,13 @@
         <v>43836</v>
       </c>
       <c r="C4">
-        <v>2155.07</v>
+        <v>2155.0700000000002</v>
       </c>
       <c r="D4">
         <v>-0.98</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -457,7 +514,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -468,10 +525,10 @@
         <v>2151.31</v>
       </c>
       <c r="D6">
-        <v>-1.11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -479,13 +536,13 @@
         <v>43839</v>
       </c>
       <c r="C7">
-        <v>2186.45</v>
+        <v>2186.4499999999998</v>
       </c>
       <c r="D7">
         <v>1.63</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -499,7 +556,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -507,13 +564,13 @@
         <v>43843</v>
       </c>
       <c r="C9">
-        <v>2229.26</v>
+        <v>2229.2600000000002</v>
       </c>
       <c r="D9">
         <v>1.04</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -527,7 +584,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -541,7 +598,7 @@
         <v>-0.35</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -549,13 +606,13 @@
         <v>43846</v>
       </c>
       <c r="C12">
-        <v>2248.05</v>
+        <v>2248.0500000000002</v>
       </c>
       <c r="D12">
         <v>0.77</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -563,13 +620,13 @@
         <v>43847</v>
       </c>
       <c r="C13">
-        <v>2250.57</v>
+        <v>2250.5700000000002</v>
       </c>
       <c r="D13">
         <v>0.11</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -583,7 +640,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -597,7 +654,7 @@
         <v>-1.01</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -611,7 +668,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -625,7 +682,7 @@
         <v>-0.93</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -633,13 +690,13 @@
         <v>43858</v>
       </c>
       <c r="C18">
-        <v>2176.72</v>
+        <v>2176.7199999999998</v>
       </c>
       <c r="D18">
         <v>-3.09</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -647,13 +704,13 @@
         <v>43859</v>
       </c>
       <c r="C19">
-        <v>2185.28</v>
+        <v>2185.2800000000002</v>
       </c>
       <c r="D19">
         <v>0.39</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -667,7 +724,7 @@
         <v>-1.71</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -675,13 +732,13 @@
         <v>43861</v>
       </c>
       <c r="C21">
-        <v>2119.01</v>
+        <v>2119.0100000000002</v>
       </c>
       <c r="D21">
         <v>-1.35</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -695,7 +752,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -709,7 +766,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -723,7 +780,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -737,7 +794,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -745,13 +802,13 @@
         <v>43868</v>
       </c>
       <c r="C26">
-        <v>2211.95</v>
+        <v>2211.9499999999998</v>
       </c>
       <c r="D26">
         <v>-0.72</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -759,13 +816,13 @@
         <v>43871</v>
       </c>
       <c r="C27">
-        <v>2201.07</v>
+        <v>2201.0700000000002</v>
       </c>
       <c r="D27">
         <v>-0.49</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -779,7 +836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -790,10 +847,10 @@
         <v>2238.38</v>
       </c>
       <c r="D29">
-        <v>0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -807,7 +864,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -821,7 +878,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -835,7 +892,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -849,7 +906,7 @@
         <v>-1.48</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -860,10 +917,10 @@
         <v>2210.34</v>
       </c>
       <c r="D34">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -877,7 +934,7 @@
         <v>-0.67</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -891,7 +948,7 @@
         <v>-1.49</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -905,7 +962,7 @@
         <v>-3.87</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -919,7 +976,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -933,7 +990,7 @@
         <v>-1.28</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -947,7 +1004,7 @@
         <v>-1.05</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -961,7 +1018,7 @@
         <v>-3.3</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -975,7 +1032,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -986,10 +1043,10 @@
         <v>2014.15</v>
       </c>
       <c r="D43">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1000,10 +1057,10 @@
         <v>2059.33</v>
       </c>
       <c r="D44">
-        <v>2.24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1011,13 +1068,13 @@
         <v>43895</v>
       </c>
       <c r="C45">
-        <v>2085.26</v>
+        <v>2085.2600000000002</v>
       </c>
       <c r="D45">
         <v>1.26</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1031,7 +1088,7 @@
         <v>-2.16</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1042,10 +1099,10 @@
         <v>1954.77</v>
       </c>
       <c r="D47">
-        <v>-4.19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1059,7 +1116,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1073,7 +1130,7 @@
         <v>-2.78</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1087,7 +1144,7 @@
         <v>-3.87</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1101,7 +1158,7 @@
         <v>-3.43</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1115,7 +1172,7 @@
         <v>-3.19</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1126,10 +1183,10 @@
         <v>1672.44</v>
       </c>
       <c r="D53">
-        <v>-2.47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1140,10 +1197,10 @@
         <v>1591.2</v>
       </c>
       <c r="D54">
-        <v>-4.86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1154,10 +1211,10 @@
         <v>1457.64</v>
       </c>
       <c r="D55">
-        <v>-8.390000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-8.39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1171,7 +1228,7 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1185,7 +1242,7 @@
         <v>-5.34</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1199,7 +1256,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1213,7 +1270,7 @@
         <v>5.89</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1224,10 +1281,10 @@
         <v>1686.24</v>
       </c>
       <c r="D60">
-        <v>-1.09</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1241,7 +1298,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1255,7 +1312,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1269,7 +1326,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1283,7 +1340,7 @@
         <v>-3.94</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1297,7 +1354,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1311,7 +1368,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1325,7 +1382,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1339,7 +1396,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1353,7 +1410,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1367,7 +1424,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1381,7 +1438,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1395,7 +1452,7 @@
         <v>-1.88</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1409,7 +1466,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1423,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1437,7 +1494,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1451,7 +1508,7 @@
         <v>-0.84</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1465,7 +1522,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1479,7 +1536,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1493,7 +1550,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1507,7 +1564,7 @@
         <v>-1.34</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1521,7 +1578,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1535,7 +1592,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1549,7 +1606,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1563,7 +1620,7 @@
         <v>-2.68</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1577,7 +1634,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1591,7 +1648,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1605,7 +1662,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1619,7 +1676,7 @@
         <v>-0.54</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1633,7 +1690,7 @@
         <v>-0.68</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1647,7 +1704,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -1661,7 +1718,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -1675,7 +1732,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -1689,7 +1746,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1703,7 +1760,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1717,7 +1774,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -1731,7 +1788,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -1745,7 +1802,7 @@
         <v>-1.41</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -1759,7 +1816,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -1773,7 +1830,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -1784,10 +1841,10 @@
         <v>2031.2</v>
       </c>
       <c r="D100">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -1801,7 +1858,7 @@
         <v>-0.13</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -1815,7 +1872,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -1829,7 +1886,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -1843,7 +1900,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -1857,7 +1914,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -1865,13 +1922,13 @@
         <v>43986</v>
       </c>
       <c r="C106">
-        <v>2151.18</v>
+        <v>2151.1799999999998</v>
       </c>
       <c r="D106">
         <v>0.19</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -1885,7 +1942,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -1899,7 +1956,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -1913,7 +1970,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -1927,7 +1984,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -1935,13 +1992,13 @@
         <v>43993</v>
       </c>
       <c r="C111">
-        <v>2176.78</v>
+        <v>2176.7800000000002</v>
       </c>
       <c r="D111">
         <v>-0.86</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -1949,13 +2006,13 @@
         <v>43994</v>
       </c>
       <c r="C112">
-        <v>2132.3</v>
+        <v>2132.3000000000002</v>
       </c>
       <c r="D112">
         <v>-2.04</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -1969,7 +2026,7 @@
         <v>-4.76</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -1977,13 +2034,13 @@
         <v>43998</v>
       </c>
       <c r="C114">
-        <v>2138.05</v>
+        <v>2138.0500000000002</v>
       </c>
       <c r="D114">
         <v>5.28</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -1991,13 +2048,13 @@
         <v>43999</v>
       </c>
       <c r="C115">
-        <v>2141.05</v>
+        <v>2141.0500000000002</v>
       </c>
       <c r="D115">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2011,7 +2068,7 @@
         <v>-0.35</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2019,13 +2076,13 @@
         <v>44001</v>
       </c>
       <c r="C117">
-        <v>2141.32</v>
+        <v>2141.3200000000002</v>
       </c>
       <c r="D117">
         <v>0.37</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2039,7 +2096,7 @@
         <v>-0.68</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2047,13 +2104,13 @@
         <v>44005</v>
       </c>
       <c r="C119">
-        <v>2131.24</v>
+        <v>2131.2399999999998</v>
       </c>
       <c r="D119">
         <v>0.21</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2061,13 +2118,13 @@
         <v>44006</v>
       </c>
       <c r="C120">
-        <v>2161.51</v>
+        <v>2161.5100000000002</v>
       </c>
       <c r="D120">
         <v>1.42</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2081,7 +2138,7 @@
         <v>-2.27</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2095,7 +2152,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2109,7 +2166,7 @@
         <v>-1.93</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2123,7 +2180,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2131,13 +2188,13 @@
         <v>44013</v>
       </c>
       <c r="C125">
-        <v>2106.7</v>
+        <v>2106.6999999999998</v>
       </c>
       <c r="D125">
         <v>-0.08</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2151,7 +2208,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2165,7 +2222,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2173,13 +2230,13 @@
         <v>44018</v>
       </c>
       <c r="C128">
-        <v>2187.93</v>
+        <v>2187.9299999999998</v>
       </c>
       <c r="D128">
         <v>1.65</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2190,10 +2247,10 @@
         <v>2164.17</v>
       </c>
       <c r="D129">
-        <v>-1.09</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>-1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2207,7 +2264,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -2221,7 +2278,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2232,10 +2289,10 @@
         <v>2150.25</v>
       </c>
       <c r="D132">
-        <v>-0.8100000000000001</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>-0.81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -2249,7 +2306,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -2263,7 +2320,7 @@
         <v>-0.11</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -2277,7 +2334,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -2285,13 +2342,13 @@
         <v>44028</v>
       </c>
       <c r="C136">
-        <v>2183.76</v>
+        <v>2183.7600000000002</v>
       </c>
       <c r="D136">
         <v>-0.82</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -2305,7 +2362,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -2313,13 +2370,13 @@
         <v>44032</v>
       </c>
       <c r="C138">
-        <v>2198.2</v>
+        <v>2198.1999999999998</v>
       </c>
       <c r="D138">
-        <v>-0.14</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>-0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -2333,7 +2390,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -2347,7 +2404,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -2358,10 +2415,10 @@
         <v>2216.19</v>
       </c>
       <c r="D141">
-        <v>-0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>-0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -2375,7 +2432,7 @@
         <v>-0.71</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -2389,7 +2446,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -2397,13 +2454,13 @@
         <v>44040</v>
       </c>
       <c r="C144">
-        <v>2256.99</v>
+        <v>2256.9899999999998</v>
       </c>
       <c r="D144">
         <v>1.76</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -2417,7 +2474,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -2425,13 +2482,13 @@
         <v>44042</v>
       </c>
       <c r="C146">
-        <v>2267.01</v>
+        <v>2267.0100000000002</v>
       </c>
       <c r="D146">
         <v>0.17</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -2445,7 +2502,7 @@
         <v>-0.78</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -2456,10 +2513,10 @@
         <v>2251.04</v>
       </c>
       <c r="D148">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -2467,13 +2524,13 @@
         <v>44047</v>
       </c>
       <c r="C149">
-        <v>2279.97</v>
+        <v>2279.9699999999998</v>
       </c>
       <c r="D149">
         <v>1.29</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -2487,7 +2544,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -2501,7 +2558,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -2515,7 +2572,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -2529,7 +2586,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -2543,7 +2600,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -2554,10 +2611,10 @@
         <v>2432.35</v>
       </c>
       <c r="D155">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -2565,13 +2622,13 @@
         <v>44056</v>
       </c>
       <c r="C156">
-        <v>2437.53</v>
+        <v>2437.5300000000002</v>
       </c>
       <c r="D156">
         <v>0.21</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -2579,13 +2636,13 @@
         <v>44057</v>
       </c>
       <c r="C157">
-        <v>2407.49</v>
+        <v>2407.4899999999998</v>
       </c>
       <c r="D157">
         <v>-1.23</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -2593,13 +2650,13 @@
         <v>44061</v>
       </c>
       <c r="C158">
-        <v>2348.24</v>
+        <v>2348.2399999999998</v>
       </c>
       <c r="D158">
         <v>-2.46</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -2613,7 +2670,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -2621,13 +2678,13 @@
         <v>44063</v>
       </c>
       <c r="C160">
-        <v>2274.22</v>
+        <v>2274.2199999999998</v>
       </c>
       <c r="D160">
         <v>-3.66</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -2641,7 +2698,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -2652,10 +2709,10 @@
         <v>2329.83</v>
       </c>
       <c r="D162">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -2669,7 +2726,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -2677,13 +2734,13 @@
         <v>44069</v>
       </c>
       <c r="C164">
-        <v>2369.32</v>
+        <v>2369.3200000000002</v>
       </c>
       <c r="D164">
         <v>0.11</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -2691,13 +2748,13 @@
         <v>44070</v>
       </c>
       <c r="C165">
-        <v>2344.45</v>
+        <v>2344.4499999999998</v>
       </c>
       <c r="D165">
         <v>-1.05</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -2705,13 +2762,13 @@
         <v>44071</v>
       </c>
       <c r="C166">
-        <v>2353.8</v>
+        <v>2353.8000000000002</v>
       </c>
       <c r="D166">
         <v>0.4</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -2725,7 +2782,7 @@
         <v>-1.17</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -2733,13 +2790,13 @@
         <v>44075</v>
       </c>
       <c r="C168">
-        <v>2349.55</v>
+        <v>2349.5500000000002</v>
       </c>
       <c r="D168">
         <v>1.01</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -2753,7 +2810,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -2767,7 +2824,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -2778,10 +2835,10 @@
         <v>2368.25</v>
       </c>
       <c r="D171">
-        <v>-1.15</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>-1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -2789,13 +2846,13 @@
         <v>44081</v>
       </c>
       <c r="C172">
-        <v>2384.22</v>
+        <v>2384.2199999999998</v>
       </c>
       <c r="D172">
         <v>0.67</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -2809,7 +2866,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -2820,10 +2877,10 @@
         <v>2375.81</v>
       </c>
       <c r="D174">
-        <v>-1.09</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>-1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -2837,7 +2894,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -2851,7 +2908,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -2865,7 +2922,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -2879,7 +2936,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -2893,7 +2950,7 @@
         <v>-0.31</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -2907,7 +2964,7 @@
         <v>-1.22</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -2921,7 +2978,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -2935,7 +2992,7 @@
         <v>-0.95</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -2949,7 +3006,7 @@
         <v>-2.38</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -2957,13 +3014,13 @@
         <v>44097</v>
       </c>
       <c r="C184">
-        <v>2333.24</v>
+        <v>2333.2399999999998</v>
       </c>
       <c r="D184">
         <v>0.03</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -2971,13 +3028,13 @@
         <v>44098</v>
       </c>
       <c r="C185">
-        <v>2272.7</v>
+        <v>2272.6999999999998</v>
       </c>
       <c r="D185">
         <v>-2.59</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -2991,7 +3048,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -3005,7 +3062,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -3019,7 +3076,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -3033,7 +3090,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -3047,7 +3104,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -3061,7 +3118,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -3075,7 +3132,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -3089,7 +3146,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -3103,7 +3160,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -3114,10 +3171,10 @@
         <v>2380.48</v>
       </c>
       <c r="D195">
-        <v>-0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <v>-0.94</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -3128,10 +3185,10 @@
         <v>2361.21</v>
       </c>
       <c r="D196">
-        <v>-0.8100000000000001</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>-0.81</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -3139,13 +3196,13 @@
         <v>44120</v>
       </c>
       <c r="C197">
-        <v>2341.53</v>
+        <v>2341.5300000000002</v>
       </c>
       <c r="D197">
         <v>-0.83</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -3153,13 +3210,13 @@
         <v>44123</v>
       </c>
       <c r="C198">
-        <v>2346.74</v>
+        <v>2346.7399999999998</v>
       </c>
       <c r="D198">
         <v>0.22</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -3173,7 +3230,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -3187,7 +3244,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -3195,13 +3252,13 @@
         <v>44126</v>
       </c>
       <c r="C201">
-        <v>2355.05</v>
+        <v>2355.0500000000002</v>
       </c>
       <c r="D201">
         <v>-0.67</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -3215,7 +3272,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -3229,7 +3286,7 @@
         <v>-0.72</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -3240,10 +3297,10 @@
         <v>2330.84</v>
       </c>
       <c r="D204">
-        <v>-0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>-0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -3251,13 +3308,13 @@
         <v>44132</v>
       </c>
       <c r="C205">
-        <v>2345.26</v>
+        <v>2345.2600000000002</v>
       </c>
       <c r="D205">
         <v>0.62</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -3271,7 +3328,7 @@
         <v>-0.79</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -3285,7 +3342,7 @@
         <v>-2.56</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -3299,7 +3356,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -3313,7 +3370,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -3321,13 +3378,13 @@
         <v>44139</v>
       </c>
       <c r="C210">
-        <v>2357.32</v>
+        <v>2357.3200000000002</v>
       </c>
       <c r="D210">
         <v>0.6</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -3341,7 +3398,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -3355,7 +3412,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -3363,13 +3420,13 @@
         <v>44144</v>
       </c>
       <c r="C213">
-        <v>2447.2</v>
+        <v>2447.1999999999998</v>
       </c>
       <c r="D213">
         <v>1.27</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -3383,7 +3440,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -3397,7 +3454,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -3411,7 +3468,7 @@
         <v>-0.41</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -3425,7 +3482,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -3433,13 +3490,13 @@
         <v>44151</v>
       </c>
       <c r="C218">
-        <v>2543.03</v>
+        <v>2543.0300000000002</v>
       </c>
       <c r="D218">
         <v>1.97</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -3453,7 +3510,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -3467,7 +3524,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -3478,10 +3535,10 @@
         <v>2547.42</v>
       </c>
       <c r="D221">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -3495,7 +3552,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -3509,7 +3566,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -3517,13 +3574,13 @@
         <v>44159</v>
       </c>
       <c r="C224">
-        <v>2617.76</v>
+        <v>2617.7600000000002</v>
       </c>
       <c r="D224">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -3537,7 +3594,7 @@
         <v>-0.62</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -3548,10 +3605,10 @@
         <v>2625.91</v>
       </c>
       <c r="D226">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -3562,10 +3619,10 @@
         <v>2633.45</v>
       </c>
       <c r="D227">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -3579,7 +3636,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -3593,7 +3650,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -3607,7 +3664,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -3621,7 +3678,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -3635,7 +3692,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -3649,7 +3706,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -3663,7 +3720,7 @@
         <v>-1.62</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -3677,7 +3734,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -3691,7 +3748,7 @@
         <v>-0.33</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -3705,7 +3762,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -3716,10 +3773,10 @@
         <v>2762.2</v>
       </c>
       <c r="D238">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
+        <v>-0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -3733,7 +3790,7 @@
         <v>-0.19</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -3747,7 +3804,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -3761,7 +3818,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -3775,7 +3832,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -3789,7 +3846,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -3803,7 +3860,7 @@
         <v>-1.62</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -3817,7 +3874,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -3831,7 +3888,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -3845,7 +3902,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -3859,7 +3916,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -3874,6 +3931,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>